--- a/Data/Bilançolar/ATATP.xlsx
+++ b/Data/Bilançolar/ATATP.xlsx
@@ -4337,7 +4337,7 @@
         <v>583600</v>
       </c>
       <c r="C91" t="n">
-        <v>1684816</v>
+        <v>19164</v>
       </c>
       <c r="D91" t="n">
         <v>9130219</v>
@@ -4509,7 +4509,7 @@
         <v>34482815</v>
       </c>
       <c r="C95" t="n">
-        <v>21559143</v>
+        <v>19893491</v>
       </c>
       <c r="D95" t="n">
         <v>53214486</v>
@@ -4552,7 +4552,7 @@
         <v>17877141</v>
       </c>
       <c r="C96" t="n">
-        <v>7819896</v>
+        <v>9485548</v>
       </c>
       <c r="D96" t="n">
         <v>23535981</v>
@@ -4638,7 +4638,7 @@
         <v>583600</v>
       </c>
       <c r="C98" t="n">
-        <v>1684816</v>
+        <v>19164</v>
       </c>
       <c r="D98" t="n">
         <v>9130219</v>
@@ -5584,7 +5584,7 @@
         <v>59932994</v>
       </c>
       <c r="C120" t="n">
-        <v>76800734</v>
+        <v>47794892</v>
       </c>
       <c r="D120" t="n">
         <v>45302283</v>
@@ -5627,7 +5627,7 @@
         <v>59932994</v>
       </c>
       <c r="C121" t="n">
-        <v>76800734</v>
+        <v>47794892</v>
       </c>
       <c r="D121" t="n">
         <v>45302283</v>
@@ -5670,7 +5670,7 @@
         <v>59932994</v>
       </c>
       <c r="C122" t="n">
-        <v>76800734</v>
+        <v>47794892</v>
       </c>
       <c r="D122" t="n">
         <v>45302283</v>
